--- a/UUExcelWorkbook/Сводная таблица для расчета расходомеров.xlsx
+++ b/UUExcelWorkbook/Сводная таблица для расчета расходомеров.xlsx
@@ -1,35 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\БТП(PL32)\Руководитель группы расчеты и заказы\работы по доработке HC\реализация узла учета\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\GitHub\UUExcelWorkbook\UUExcelWorkbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABB4928-1029-417C-9587-4BF2061330A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="3030" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="3030" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="main" sheetId="3" r:id="rId5"/>
     <sheet name="Общая таблица" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="Data1">main!$C$11:$AJ$85</definedName>
+    <definedName name="Data2">main!$C$88:$AJ$150</definedName>
+    <definedName name="title">main!$C$10:$AI$10</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="331">
   <si>
     <t>Питерфлоу</t>
   </si>
@@ -1522,15 +1533,24 @@
   <si>
     <t>Экв. шероховатость труб, мм</t>
   </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>Термотроник</t>
+  </si>
+  <si>
+    <t>SonoSensor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2017,7 +2037,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -2722,6 +2742,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2769,7 +2800,7 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3056,6 +3087,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="43" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3074,56 +3106,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Акцент1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3166,8 +3200,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9296400" y="28575"/>
-          <a:ext cx="9123427" cy="2295525"/>
+          <a:off x="8162925" y="28575"/>
+          <a:ext cx="8037577" cy="2352675"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="4560952" cy="2352675"/>
         </a:xfrm>
@@ -3972,9 +4006,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4012,7 +4046,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4118,7 +4152,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4267,25 +4301,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B90" sqref="A87:B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="62.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -4308,7 +4342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4337,7 +4371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4366,7 +4400,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4395,7 +4429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4424,7 +4458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4453,7 +4487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4511,7 +4545,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +4574,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4569,7 +4603,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4598,7 +4632,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4627,7 +4661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4656,7 +4690,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4685,7 +4719,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4714,7 +4748,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4743,7 +4777,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4772,7 +4806,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +4835,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4830,7 +4864,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4859,7 +4893,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4888,7 +4922,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -4911,7 +4945,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4940,7 +4974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -4969,7 +5003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -4998,7 +5032,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -5027,7 +5061,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -5056,7 +5090,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -5085,7 +5119,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -5114,7 +5148,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -5143,7 +5177,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -5172,7 +5206,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -5201,7 +5235,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -5230,7 +5264,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -5259,7 +5293,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -5288,7 +5322,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -5317,7 +5351,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5346,7 +5380,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -5375,7 +5409,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -5404,7 +5438,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -5433,7 +5467,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>30</v>
       </c>
@@ -5456,7 +5490,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -5485,7 +5519,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -5514,7 +5548,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -5543,7 +5577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -5572,7 +5606,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -5601,7 +5635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -5630,7 +5664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5659,7 +5693,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -5688,7 +5722,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -5717,7 +5751,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -5746,7 +5780,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -5775,7 +5809,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -5804,7 +5838,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>30</v>
       </c>
@@ -5827,7 +5861,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -5856,7 +5890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -5885,7 +5919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -5914,7 +5948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -5943,7 +5977,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -5972,7 +6006,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6001,7 +6035,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -6030,7 +6064,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -6059,7 +6093,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -6088,12 +6122,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -6119,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -6145,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -6171,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -6197,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -6223,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>66</v>
       </c>
@@ -6249,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -6275,7 +6309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>66</v>
       </c>
@@ -6301,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -6327,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -6353,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>66</v>
       </c>
@@ -6379,7 +6413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -6405,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -6431,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>66</v>
       </c>
@@ -6457,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>66</v>
       </c>
@@ -6483,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>66</v>
       </c>
@@ -6509,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>66</v>
       </c>
@@ -6535,7 +6569,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -6561,7 +6595,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>66</v>
       </c>
@@ -6594,36 +6628,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="28.5">
+    <row r="3" spans="1:16" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -6664,7 +6698,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6707,7 +6741,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -6750,7 +6784,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6793,7 +6827,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -6836,7 +6870,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -6879,7 +6913,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -6922,7 +6956,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -6965,7 +6999,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -7008,7 +7042,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -7051,7 +7085,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -7094,7 +7128,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -7137,7 +7171,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -7180,7 +7214,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -7223,7 +7257,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -7266,7 +7300,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -7309,7 +7343,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -7352,7 +7386,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -7395,7 +7429,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -7438,7 +7472,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -7481,7 +7515,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -7524,7 +7558,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -7567,7 +7601,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -7603,7 +7637,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -7662,7 +7696,7 @@
       <c r="V26" s="66"/>
       <c r="W26" s="66"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>184</v>
       </c>
@@ -7721,7 +7755,7 @@
       <c r="V27" s="66"/>
       <c r="W27" s="66"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -7780,7 +7814,7 @@
       <c r="V28" s="66"/>
       <c r="W28" s="66"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -7839,7 +7873,7 @@
       <c r="V29" s="66"/>
       <c r="W29" s="66"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>184</v>
       </c>
@@ -7898,7 +7932,7 @@
       <c r="V30" s="66"/>
       <c r="W30" s="66"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>184</v>
       </c>
@@ -7957,7 +7991,7 @@
       <c r="V31" s="66"/>
       <c r="W31" s="66"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -8016,7 +8050,7 @@
       <c r="V32" s="66"/>
       <c r="W32" s="66"/>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -8075,7 +8109,7 @@
       <c r="V33" s="66"/>
       <c r="W33" s="66"/>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -8134,7 +8168,7 @@
       <c r="V34" s="66"/>
       <c r="W34" s="66"/>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>184</v>
       </c>
@@ -8193,7 +8227,7 @@
       <c r="V35" s="66"/>
       <c r="W35" s="66"/>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -8246,7 +8280,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>184</v>
       </c>
@@ -8299,7 +8333,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -8359,16 +8393,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>245</v>
       </c>
@@ -8391,7 +8425,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="98" t="s">
         <v>230</v>
       </c>
@@ -8414,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="s">
         <v>231</v>
       </c>
@@ -8437,7 +8471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="98" t="s">
         <v>232</v>
       </c>
@@ -8460,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
         <v>233</v>
       </c>
@@ -8483,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="98" t="s">
         <v>234</v>
       </c>
@@ -8506,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="98" t="s">
         <v>235</v>
       </c>
@@ -8529,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="98" t="s">
         <v>236</v>
       </c>
@@ -8552,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="98" t="s">
         <v>237</v>
       </c>
@@ -8575,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="98" t="s">
         <v>238</v>
       </c>
@@ -8598,7 +8632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="98" t="s">
         <v>239</v>
       </c>
@@ -8621,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="98" t="s">
         <v>240</v>
       </c>
@@ -8644,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="98" t="s">
         <v>241</v>
       </c>
@@ -8667,7 +8701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="98" t="s">
         <v>242</v>
       </c>
@@ -8696,21 +8730,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="107" t="s">
         <v>268</v>
       </c>
@@ -8739,7 +8773,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
         <v>276</v>
       </c>
@@ -8769,7 +8803,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="103" t="s">
         <v>279</v>
       </c>
@@ -8799,7 +8833,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="103" t="s">
         <v>280</v>
       </c>
@@ -8829,7 +8863,7 @@
         <v>255.3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="103" t="s">
         <v>282</v>
       </c>
@@ -8859,7 +8893,7 @@
         <v>272.55</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="103" t="s">
         <v>284</v>
       </c>
@@ -8889,7 +8923,7 @@
         <v>350.75</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="103" t="s">
         <v>286</v>
       </c>
@@ -8919,7 +8953,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="103" t="s">
         <v>288</v>
       </c>
@@ -8949,7 +8983,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>290</v>
       </c>
@@ -8979,7 +9013,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>292</v>
       </c>
@@ -9009,7 +9043,7 @@
         <v>372.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="103" t="s">
         <v>294</v>
       </c>
@@ -9039,7 +9073,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="103" t="s">
         <v>296</v>
       </c>
@@ -9069,7 +9103,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="103" t="s">
         <v>298</v>
       </c>
@@ -9099,7 +9133,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="103" t="s">
         <v>300</v>
       </c>
@@ -9136,50 +9170,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BC150"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ87" sqref="AJ87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
-    <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="12" width="12.625" customWidth="1"/>
-    <col min="20" max="20" width="24.625" customWidth="1"/>
-    <col min="21" max="21" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="12" width="12.5703125" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" customWidth="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
-    <col min="29" max="29" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.625" customWidth="1"/>
+    <col min="29" max="29" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="36" max="36" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AU1" s="113" t="s">
+      <c r="AU1" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="AV1" s="114"/>
-      <c r="AY1" s="115" t="s">
+      <c r="AV1" s="115"/>
+      <c r="AY1" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="AZ1" s="116"/>
-      <c r="BA1" s="116"/>
-      <c r="BB1" s="116"/>
-      <c r="BC1" s="117"/>
-    </row>
-    <row r="2" spans="1:55">
+      <c r="AZ1" s="117"/>
+      <c r="BA1" s="117"/>
+      <c r="BB1" s="117"/>
+      <c r="BC1" s="118"/>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="AU2" s="54" t="s">
         <v>90</v>
@@ -9203,7 +9238,7 @@
         <v>-3.9440559440559475E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="23.25">
+    <row r="3" spans="1:55" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>154</v>
       </c>
@@ -9233,7 +9268,7 @@
         <v>-4.4910644910644529E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="29.25">
+    <row r="4" spans="1:55" ht="29.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="T4" t="s">
         <v>167</v>
@@ -9269,7 +9304,7 @@
         <v>-4.4910644910644529E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="29.25">
+    <row r="5" spans="1:55" ht="29.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="T5" t="s">
         <v>159</v>
@@ -9302,7 +9337,7 @@
         <v>3.1080031080031988E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="29.25">
+    <row r="6" spans="1:55" ht="29.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="F6" t="s">
         <v>157</v>
@@ -9332,11 +9367,11 @@
         <v>3.1080031080031988E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="29.25">
-      <c r="A7" s="112" t="s">
+    <row r="7" spans="1:55" ht="29.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="84"/>
       <c r="D7">
         <v>150</v>
@@ -9373,11 +9408,11 @@
         <v>-4.1802641802641798E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
-      <c r="A8" s="112" t="s">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A8" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="84"/>
       <c r="D8">
         <v>70</v>
@@ -9411,7 +9446,7 @@
         <v>-4.1802641802641798E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:55" ht="23.25" thickBot="1">
+    <row r="9" spans="1:55" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F9" s="40" t="s">
         <v>221</v>
       </c>
@@ -9437,7 +9472,7 @@
         <v>-2.7777777777776928E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:55" ht="77.25" thickBot="1">
+    <row r="10" spans="1:55" ht="77.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>84</v>
       </c>
@@ -9543,6 +9578,9 @@
       <c r="AI10" s="37" t="s">
         <v>178</v>
       </c>
+      <c r="AJ10" s="120" t="s">
+        <v>328</v>
+      </c>
       <c r="AU10" s="54" t="s">
         <v>112</v>
       </c>
@@ -9565,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>20</v>
       </c>
@@ -9689,6 +9727,9 @@
         <f t="shared" ref="AI11:AI42" si="6">(4*$V$4*1000/(3.6*PI()*H11^2))</f>
         <v>8.8419412828830737</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>329</v>
+      </c>
       <c r="AU11" s="54" t="s">
         <v>113</v>
       </c>
@@ -9696,7 +9737,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="87"/>
       <c r="C12" s="92">
@@ -9816,6 +9857,9 @@
         <f t="shared" si="6"/>
         <v>8.8419412828830737</v>
       </c>
+      <c r="AJ12" t="s">
+        <v>329</v>
+      </c>
       <c r="AU12" s="54" t="s">
         <v>119</v>
       </c>
@@ -9823,7 +9867,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>25</v>
       </c>
@@ -9947,6 +9991,9 @@
         <f t="shared" si="6"/>
         <v>8.8419412828830737</v>
       </c>
+      <c r="AJ13" t="s">
+        <v>329</v>
+      </c>
       <c r="AU13" s="54" t="s">
         <v>123</v>
       </c>
@@ -9954,7 +10001,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="24"/>
       <c r="C14" s="92">
@@ -10074,6 +10121,9 @@
         <f t="shared" si="6"/>
         <v>8.8419412828830737</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>329</v>
+      </c>
       <c r="AU14" s="54" t="s">
         <v>126</v>
       </c>
@@ -10081,7 +10131,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="24"/>
       <c r="C15" s="92">
@@ -10201,6 +10251,9 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>329</v>
+      </c>
       <c r="AU15" s="54" t="s">
         <v>127</v>
       </c>
@@ -10208,7 +10261,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="24"/>
       <c r="C16" s="92">
@@ -10328,6 +10381,9 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
+      <c r="AJ16" t="s">
+        <v>329</v>
+      </c>
       <c r="AU16" s="54" t="s">
         <v>132</v>
       </c>
@@ -10335,7 +10391,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>32</v>
       </c>
@@ -10459,8 +10515,11 @@
         <f t="shared" si="6"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AJ17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="24"/>
       <c r="C18" s="92">
@@ -10580,8 +10639,11 @@
         <f t="shared" si="6"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AJ18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="24"/>
       <c r="C19" s="92">
@@ -10701,8 +10763,11 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AJ19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="24"/>
       <c r="C20" s="92">
@@ -10822,8 +10887,11 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AJ20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="24"/>
       <c r="C21" s="93">
@@ -10943,8 +11011,11 @@
         <f t="shared" si="6"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AJ21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="89"/>
       <c r="C22" s="93">
@@ -11064,8 +11135,11 @@
         <f t="shared" si="6"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AJ22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>40</v>
       </c>
@@ -11189,8 +11263,11 @@
         <f t="shared" si="6"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AJ23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="24"/>
       <c r="C24" s="92">
@@ -11310,8 +11387,11 @@
         <f t="shared" si="6"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="AJ24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="24"/>
       <c r="C25" s="92">
@@ -11431,8 +11511,11 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AJ25" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="24"/>
       <c r="C26" s="92">
@@ -11552,8 +11635,11 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AJ26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="24"/>
       <c r="C27" s="93">
@@ -11673,8 +11759,11 @@
         <f t="shared" si="6"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AJ27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="24"/>
       <c r="C28" s="93">
@@ -11794,8 +11883,11 @@
         <f t="shared" si="6"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="AJ28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="24"/>
       <c r="C29" s="92">
@@ -11915,8 +12007,11 @@
         <f t="shared" si="6"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="AJ29" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="24"/>
       <c r="C30" s="93">
@@ -12036,8 +12131,11 @@
         <f t="shared" si="6"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="31" spans="1:35">
+      <c r="AJ30" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>50</v>
       </c>
@@ -12161,8 +12259,11 @@
         <f t="shared" si="6"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="32" spans="1:35">
+      <c r="AJ31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="B32" s="24"/>
       <c r="C32" s="92">
@@ -12282,8 +12383,11 @@
         <f t="shared" si="6"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="33" spans="1:35">
+      <c r="AJ32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="B33" s="24"/>
       <c r="C33" s="92">
@@ -12403,8 +12507,11 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="34" spans="1:35">
+      <c r="AJ33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="24"/>
       <c r="C34" s="92">
@@ -12524,8 +12631,11 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="35" spans="1:35">
+      <c r="AJ34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="B35" s="24"/>
       <c r="C35" s="93">
@@ -12645,8 +12755,11 @@
         <f t="shared" si="6"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="36" spans="1:35">
+      <c r="AJ35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="B36" s="24"/>
       <c r="C36" s="93">
@@ -12766,8 +12879,11 @@
         <f t="shared" si="6"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="37" spans="1:35">
+      <c r="AJ36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="B37" s="24"/>
       <c r="C37" s="92">
@@ -12887,8 +13003,11 @@
         <f t="shared" si="6"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="38" spans="1:35">
+      <c r="AJ37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="B38" s="24"/>
       <c r="C38" s="93">
@@ -13008,8 +13127,11 @@
         <f t="shared" si="6"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="39" spans="1:35">
+      <c r="AJ38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="B39" s="24"/>
       <c r="C39" s="93">
@@ -13129,8 +13251,11 @@
         <f t="shared" si="6"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="40" spans="1:35">
+      <c r="AJ39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="89"/>
       <c r="C40" s="93">
@@ -13250,8 +13375,11 @@
         <f t="shared" si="6"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="41" spans="1:35">
+      <c r="AJ40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>65</v>
       </c>
@@ -13375,8 +13503,11 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="AJ41" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="B42" s="24"/>
       <c r="C42" s="92">
@@ -13496,8 +13627,11 @@
         <f t="shared" si="6"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="43" spans="1:35">
+      <c r="AJ42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="B43" s="22"/>
       <c r="C43" s="93">
@@ -13617,8 +13751,11 @@
         <f t="shared" ref="AI43:AI74" si="73">(4*$V$4*1000/(3.6*PI()*H43^2))</f>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="44" spans="1:35">
+      <c r="AJ43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="B44" s="24"/>
       <c r="C44" s="93">
@@ -13738,8 +13875,11 @@
         <f t="shared" si="73"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="45" spans="1:35">
+      <c r="AJ44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="B45" s="24"/>
       <c r="C45" s="92">
@@ -13859,8 +13999,11 @@
         <f t="shared" si="73"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="46" spans="1:35">
+      <c r="AJ45" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="B46" s="24"/>
       <c r="C46" s="93">
@@ -13980,8 +14123,11 @@
         <f t="shared" si="73"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="47" spans="1:35">
+      <c r="AJ46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="B47" s="24"/>
       <c r="C47" s="93">
@@ -14101,8 +14247,11 @@
         <f t="shared" si="73"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="48" spans="1:35">
+      <c r="AJ47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="B48" s="24"/>
       <c r="C48" s="93">
@@ -14222,8 +14371,11 @@
         <f t="shared" si="73"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="49" spans="1:35">
+      <c r="AJ48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="B49" s="24"/>
       <c r="C49" s="92">
@@ -14343,8 +14495,11 @@
         <f t="shared" si="73"/>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="50" spans="1:35">
+      <c r="AJ49" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>80</v>
       </c>
@@ -14468,8 +14623,11 @@
         <f t="shared" si="73"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="51" spans="1:35">
+      <c r="AJ50" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="B51" s="24"/>
       <c r="C51" s="93">
@@ -14589,8 +14747,11 @@
         <f t="shared" si="73"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="52" spans="1:35">
+      <c r="AJ51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="B52" s="24"/>
       <c r="C52" s="92">
@@ -14710,8 +14871,11 @@
         <f t="shared" si="73"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="53" spans="1:35">
+      <c r="AJ52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="B53" s="24"/>
       <c r="C53" s="93">
@@ -14831,8 +14995,11 @@
         <f t="shared" si="73"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="54" spans="1:35">
+      <c r="AJ53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="B54" s="24"/>
       <c r="C54" s="93">
@@ -14952,8 +15119,11 @@
         <f t="shared" si="73"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="55" spans="1:35">
+      <c r="AJ54" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="B55" s="24"/>
       <c r="C55" s="93">
@@ -15073,8 +15243,11 @@
         <f t="shared" si="73"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="56" spans="1:35">
+      <c r="AJ55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="B56" s="24"/>
       <c r="C56" s="92">
@@ -15194,8 +15367,11 @@
         <f t="shared" si="73"/>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="57" spans="1:35">
+      <c r="AJ56" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="89"/>
       <c r="C57" s="92">
@@ -15315,8 +15491,11 @@
         <f t="shared" si="73"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="58" spans="1:35">
+      <c r="AJ57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>100</v>
       </c>
@@ -15440,8 +15619,11 @@
         <f t="shared" si="73"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="59" spans="1:35">
+      <c r="AJ58" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="B59" s="24"/>
       <c r="C59" s="93">
@@ -15561,8 +15743,11 @@
         <f t="shared" si="73"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="60" spans="1:35">
+      <c r="AJ59" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="B60" s="24"/>
       <c r="C60" s="93">
@@ -15682,8 +15867,11 @@
         <f t="shared" si="73"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="61" spans="1:35">
+      <c r="AJ60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="B61" s="24"/>
       <c r="C61" s="93">
@@ -15803,8 +15991,11 @@
         <f t="shared" si="73"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="62" spans="1:35">
+      <c r="AJ61" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="B62" s="24"/>
       <c r="C62" s="92">
@@ -15924,8 +16115,11 @@
         <f t="shared" si="73"/>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="63" spans="1:35">
+      <c r="AJ62" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="B63" s="24"/>
       <c r="C63" s="92">
@@ -16045,8 +16239,11 @@
         <f t="shared" si="73"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="64" spans="1:35">
+      <c r="AJ63" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
       <c r="B64" s="24"/>
       <c r="C64" s="92">
@@ -16166,8 +16363,11 @@
         <f t="shared" si="73"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="65" spans="1:35">
+      <c r="AJ64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="24"/>
       <c r="C65" s="92">
@@ -16287,8 +16487,11 @@
         <f t="shared" si="73"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="66" spans="1:35">
+      <c r="AJ65" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>125</v>
       </c>
@@ -16412,8 +16615,11 @@
         <f t="shared" si="73"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="67" spans="1:35">
+      <c r="AJ66" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67" s="13"/>
       <c r="B67" s="24"/>
       <c r="C67" s="93">
@@ -16533,8 +16739,11 @@
         <f t="shared" si="73"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="68" spans="1:35">
+      <c r="AJ67" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" s="13"/>
       <c r="B68" s="24"/>
       <c r="C68" s="92">
@@ -16654,8 +16863,11 @@
         <f t="shared" si="73"/>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="69" spans="1:35">
+      <c r="AJ68" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69" s="13"/>
       <c r="B69" s="24"/>
       <c r="C69" s="92">
@@ -16775,8 +16987,11 @@
         <f t="shared" si="73"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="70" spans="1:35">
+      <c r="AJ69" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A70" s="13"/>
       <c r="B70" s="24"/>
       <c r="C70" s="92">
@@ -16896,8 +17111,11 @@
         <f t="shared" si="73"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="71" spans="1:35">
+      <c r="AJ70" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A71" s="13"/>
       <c r="B71" s="89"/>
       <c r="C71" s="92">
@@ -17017,8 +17235,11 @@
         <f t="shared" si="73"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="72" spans="1:35">
+      <c r="AJ71" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>150</v>
       </c>
@@ -17142,8 +17363,11 @@
         <f t="shared" si="73"/>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="73" spans="1:35">
+      <c r="AJ72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A73" s="13"/>
       <c r="B73" s="24"/>
       <c r="C73" s="92">
@@ -17263,8 +17487,11 @@
         <f t="shared" si="73"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="74" spans="1:35">
+      <c r="AJ73" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A74" s="13"/>
       <c r="B74" s="25"/>
       <c r="C74" s="92">
@@ -17384,8 +17611,11 @@
         <f t="shared" si="73"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="75" spans="1:35">
+      <c r="AJ74" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A75" s="26"/>
       <c r="B75" s="25"/>
       <c r="C75" s="92">
@@ -17505,8 +17735,11 @@
         <f t="shared" ref="AI75:AI85" si="134">(4*$V$4*1000/(3.6*PI()*H75^2))</f>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="76" spans="1:35">
+      <c r="AJ75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="89"/>
       <c r="C76" s="92">
@@ -17626,8 +17859,11 @@
         <f t="shared" si="134"/>
         <v>0.15719006725125464</v>
       </c>
-    </row>
-    <row r="77" spans="1:35">
+      <c r="AJ76" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>200</v>
       </c>
@@ -17751,8 +17987,11 @@
         <f t="shared" si="134"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="78" spans="1:35">
+      <c r="AJ77" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A78" s="13"/>
       <c r="B78" s="24"/>
       <c r="C78" s="92">
@@ -17872,8 +18111,11 @@
         <f t="shared" si="134"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="79" spans="1:35">
+      <c r="AJ78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A79" s="26"/>
       <c r="B79" s="25"/>
       <c r="C79" s="92">
@@ -17993,8 +18235,11 @@
         <f t="shared" si="134"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="80" spans="1:35">
+      <c r="AJ79" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="90"/>
       <c r="C80" s="92">
@@ -18114,8 +18359,11 @@
         <f t="shared" si="134"/>
         <v>0.15719006725125464</v>
       </c>
-    </row>
-    <row r="81" spans="1:35">
+      <c r="AJ80" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>250</v>
       </c>
@@ -18239,8 +18487,11 @@
         <f t="shared" si="134"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="82" spans="1:35">
+      <c r="AJ81" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A82" s="13"/>
       <c r="B82" s="25"/>
       <c r="C82" s="92">
@@ -18360,8 +18611,11 @@
         <f t="shared" si="134"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="83" spans="1:35">
+      <c r="AJ82" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A83" s="13"/>
       <c r="B83" s="25"/>
       <c r="C83" s="92">
@@ -18481,8 +18735,11 @@
         <f t="shared" si="134"/>
         <v>0.15719006725125464</v>
       </c>
-    </row>
-    <row r="84" spans="1:35">
+      <c r="AJ83" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>300</v>
       </c>
@@ -18606,8 +18863,11 @@
         <f t="shared" si="134"/>
         <v>0.15719006725125464</v>
       </c>
-    </row>
-    <row r="85" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="28">
         <v>350</v>
       </c>
@@ -18731,13 +18991,16 @@
         <f t="shared" si="134"/>
         <v>0.15719006725125464</v>
       </c>
-    </row>
-    <row r="86" spans="1:35" ht="23.25" thickBot="1">
+      <c r="AJ85" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F86" s="40" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:35" ht="77.25" thickBot="1">
+    <row r="87" spans="1:36" ht="77.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>84</v>
       </c>
@@ -18841,8 +19104,11 @@
       <c r="AI87" s="37" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="88" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ87" s="120" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>15</v>
       </c>
@@ -18976,8 +19242,11 @@
         <f t="shared" ref="AI88" si="148">(4*$V$4*1000/(3.6*PI()*H88^2))</f>
         <v>15.719006725125467</v>
       </c>
-    </row>
-    <row r="89" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ88" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13"/>
       <c r="B89" s="14"/>
       <c r="C89" s="24" t="s">
@@ -19107,8 +19376,11 @@
         <f t="shared" ref="AI89:AI92" si="163">(4*$V$4*1000/(3.6*PI()*H89^2))</f>
         <v>15.719006725125467</v>
       </c>
-    </row>
-    <row r="90" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ89" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="59">
         <v>20</v>
       </c>
@@ -19242,8 +19514,11 @@
         <f t="shared" si="163"/>
         <v>15.719006725125467</v>
       </c>
-    </row>
-    <row r="91" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ90" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="60"/>
       <c r="B91" s="14"/>
       <c r="C91" s="24" t="s">
@@ -19373,8 +19648,11 @@
         <f t="shared" si="163"/>
         <v>15.719006725125467</v>
       </c>
-    </row>
-    <row r="92" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ91" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="94"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14" t="s">
@@ -19504,8 +19782,11 @@
         <f t="shared" si="163"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="93" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ92" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13">
         <v>25</v>
       </c>
@@ -19639,8 +19920,11 @@
         <f t="shared" ref="AI93:AI132" si="182">(4*$V$4*1000/(3.6*PI()*H93^2))</f>
         <v>15.719006725125467</v>
       </c>
-    </row>
-    <row r="94" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ93" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13"/>
       <c r="B94" s="14"/>
       <c r="C94" s="24" t="s">
@@ -19770,8 +20054,11 @@
         <f t="shared" si="182"/>
         <v>15.719006725125467</v>
       </c>
-    </row>
-    <row r="95" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ94" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14" t="s">
@@ -19901,8 +20188,11 @@
         <f t="shared" si="182"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="96" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ95" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="24" t="s">
@@ -20032,8 +20322,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="97" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ96" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="24" t="s">
@@ -20163,8 +20456,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="98" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ97" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
       <c r="C98" s="24" t="s">
@@ -20294,8 +20590,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="99" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ98" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="16">
         <v>32</v>
       </c>
@@ -20429,8 +20728,11 @@
         <f t="shared" si="182"/>
         <v>15.719006725125467</v>
       </c>
-    </row>
-    <row r="100" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ99" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
       <c r="C100" s="24" t="s">
@@ -20560,8 +20862,11 @@
         <f t="shared" si="182"/>
         <v>15.719006725125467</v>
       </c>
-    </row>
-    <row r="101" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ100" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14" t="s">
@@ -20691,8 +20996,11 @@
         <f t="shared" si="182"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="102" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ101" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
       <c r="C102" s="24" t="s">
@@ -20822,8 +21130,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="103" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ102" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
       <c r="C103" s="24" t="s">
@@ -20953,8 +21264,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="104" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ103" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
       <c r="C104" s="24" t="s">
@@ -21084,8 +21398,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="105" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ104" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
       <c r="C105" s="24" t="s">
@@ -21215,8 +21532,11 @@
         <f t="shared" si="182"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="106" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ105" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="16">
         <v>40</v>
       </c>
@@ -21350,8 +21670,11 @@
         <f t="shared" si="182"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="107" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ106" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
       <c r="C107" s="24" t="s">
@@ -21481,8 +21804,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="108" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ107" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
       <c r="C108" s="24" t="s">
@@ -21612,8 +21938,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="109" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ108" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
       <c r="C109" s="24" t="s">
@@ -21743,8 +22072,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="110" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ109" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="24" t="s">
@@ -21874,8 +22206,11 @@
         <f t="shared" si="182"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="111" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ110" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="24" t="s">
@@ -22005,8 +22340,11 @@
         <f t="shared" si="182"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="112" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ111" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
       <c r="C112" s="24" t="s">
@@ -22136,8 +22474,11 @@
         <f t="shared" si="182"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="113" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ112" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="16">
         <v>50</v>
       </c>
@@ -22271,8 +22612,11 @@
         <f t="shared" si="182"/>
         <v>8.8419412828830737</v>
       </c>
-    </row>
-    <row r="114" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ113" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="24" t="s">
@@ -22402,8 +22746,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="115" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ114" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="24" t="s">
@@ -22533,8 +22880,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="116" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ115" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
       <c r="C116" s="24" t="s">
@@ -22664,8 +23014,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="117" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ116" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
       <c r="C117" s="24" t="s">
@@ -22795,8 +23148,11 @@
         <f t="shared" si="182"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="118" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ117" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
       <c r="C118" s="24" t="s">
@@ -22926,8 +23282,11 @@
         <f t="shared" si="182"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="119" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ118" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
       <c r="C119" s="24" t="s">
@@ -23057,8 +23416,11 @@
         <f t="shared" si="182"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="120" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ119" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
       <c r="C120" s="24" t="s">
@@ -23188,8 +23550,11 @@
         <f t="shared" si="182"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="121" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ120" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="16">
         <v>65</v>
       </c>
@@ -23323,8 +23688,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="122" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ121" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
       <c r="C122" s="24" t="s">
@@ -23454,8 +23822,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="123" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ122" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="24" t="s">
@@ -23585,8 +23956,11 @@
         <f t="shared" si="182"/>
         <v>5.6588424210451675</v>
       </c>
-    </row>
-    <row r="124" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ123" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
       <c r="C124" s="24" t="s">
@@ -23716,8 +24090,11 @@
         <f t="shared" si="182"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="125" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ124" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
       <c r="C125" s="24" t="s">
@@ -23847,8 +24224,11 @@
         <f t="shared" si="182"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="126" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ125" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
       <c r="C126" s="24" t="s">
@@ -23978,8 +24358,11 @@
         <f t="shared" si="182"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="127" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ126" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
       <c r="C127" s="24" t="s">
@@ -24109,8 +24492,11 @@
         <f t="shared" si="182"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="128" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ127" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="13"/>
       <c r="B128" s="14"/>
       <c r="C128" s="24" t="s">
@@ -24240,8 +24626,11 @@
         <f t="shared" si="182"/>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="129" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ128" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="129" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="16">
         <v>80</v>
       </c>
@@ -24375,8 +24764,11 @@
         <f t="shared" si="182"/>
         <v>3.4538833136262008</v>
       </c>
-    </row>
-    <row r="130" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ129" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="130" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="13"/>
       <c r="B130" s="14"/>
       <c r="C130" s="24" t="s">
@@ -24506,8 +24898,11 @@
         <f t="shared" si="182"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="131" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ130" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="13"/>
       <c r="B131" s="14"/>
       <c r="C131" s="24" t="s">
@@ -24637,8 +25032,11 @@
         <f t="shared" si="182"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="132" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ131" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13"/>
       <c r="B132" s="14"/>
       <c r="C132" s="24" t="s">
@@ -24768,8 +25166,11 @@
         <f t="shared" si="182"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="133" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ132" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="13"/>
       <c r="B133" s="14"/>
       <c r="C133" s="24" t="s">
@@ -24899,8 +25300,11 @@
         <f t="shared" ref="AI133:AI150" si="201">(4*$V$4*1000/(3.6*PI()*H133^2))</f>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="134" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ133" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="13"/>
       <c r="B134" s="14"/>
       <c r="C134" s="24" t="s">
@@ -25030,8 +25434,11 @@
         <f t="shared" si="201"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="135" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ134" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="16">
         <v>100</v>
       </c>
@@ -25165,8 +25572,11 @@
         <f t="shared" si="201"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="136" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ135" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="13"/>
       <c r="B136" s="14"/>
       <c r="C136" s="24" t="s">
@@ -25296,8 +25706,11 @@
         <f t="shared" si="201"/>
         <v>2.2104853207207684</v>
       </c>
-    </row>
-    <row r="137" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ136" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="13"/>
       <c r="B137" s="14"/>
       <c r="C137" s="24" t="s">
@@ -25427,8 +25840,11 @@
         <f t="shared" si="201"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="138" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ137" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="13"/>
       <c r="B138" s="14"/>
       <c r="C138" s="24" t="s">
@@ -25558,8 +25974,11 @@
         <f t="shared" si="201"/>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="139" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ138" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="13"/>
       <c r="B139" s="14"/>
       <c r="C139" s="24" t="s">
@@ -25689,8 +26108,11 @@
         <f t="shared" si="201"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="140" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ139" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="140" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="20"/>
       <c r="B140" s="14"/>
       <c r="C140" s="24" t="s">
@@ -25820,8 +26242,11 @@
         <f t="shared" si="201"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="141" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ140" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="141" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="16">
         <v>125</v>
       </c>
@@ -25955,8 +26380,11 @@
         <f t="shared" si="201"/>
         <v>1.4147106052612919</v>
       </c>
-    </row>
-    <row r="142" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ141" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="142" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="13"/>
       <c r="B142" s="14"/>
       <c r="C142" s="24" t="s">
@@ -26086,8 +26514,11 @@
         <f t="shared" si="201"/>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="143" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ142" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="13"/>
       <c r="B143" s="14"/>
       <c r="C143" s="24" t="s">
@@ -26217,8 +26648,11 @@
         <f t="shared" si="201"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="144" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ143" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="13"/>
       <c r="B144" s="14"/>
       <c r="C144" s="24" t="s">
@@ -26348,8 +26782,11 @@
         <f t="shared" si="201"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="145" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ144" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="16">
         <v>150</v>
       </c>
@@ -26483,8 +26920,11 @@
         <f t="shared" si="201"/>
         <v>0.83710686701851589</v>
       </c>
-    </row>
-    <row r="146" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ145" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="13"/>
       <c r="B146" s="14"/>
       <c r="C146" s="24" t="s">
@@ -26614,8 +27054,11 @@
         <f t="shared" si="201"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="147" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ146" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="24" t="s">
@@ -26745,8 +27188,11 @@
         <f t="shared" si="201"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="148" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ147" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="148" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="16">
         <v>200</v>
       </c>
@@ -26880,8 +27326,11 @@
         <f t="shared" si="201"/>
         <v>0.55262133018019211</v>
       </c>
-    </row>
-    <row r="149" spans="1:35" ht="15" thickBot="1">
+      <c r="AJ148" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="149" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="13"/>
       <c r="B149" s="14"/>
       <c r="C149" s="24" t="s">
@@ -27011,8 +27460,11 @@
         <f t="shared" si="201"/>
         <v>0.35367765131532297</v>
       </c>
-    </row>
-    <row r="150" spans="1:35">
+      <c r="AJ149" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="150" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A150" s="63">
         <v>250</v>
       </c>
@@ -27145,6 +27597,9 @@
       <c r="AI150" s="38">
         <f t="shared" si="201"/>
         <v>0.35367765131532297</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -27161,19 +27616,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
         <v>302</v>
       </c>
@@ -27184,132 +27639,132 @@
       <c r="F1" s="119"/>
       <c r="G1" s="119"/>
     </row>
-    <row r="3" spans="1:7" ht="15">
-      <c r="A3" s="118" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="112" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="118" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="112" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15">
-      <c r="A19" s="118" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="112" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15">
-      <c r="A20" s="118" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="112" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15">
-      <c r="A23" s="118" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="112" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15">
-      <c r="A26" s="118" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="112" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>322</v>
       </c>
